--- a/Finflux Automation Excels/Client/5045-CompondingPenalityCharge-MoraoriumOnPrinciple2-BeforeAndAfterGracePeriod-3rdInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5045-CompondingPenalityCharge-MoraoriumOnPrinciple2-BeforeAndAfterGracePeriod-3rdInstallment.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>OverDueTillDate</t>
   </si>
@@ -171,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +214,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -248,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -274,6 +281,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -601,7 +609,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +722,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +939,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,15 +1345,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1382,7 +1391,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>4024</v>
+        <v>438</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>30</v>
@@ -1394,19 +1403,19 @@
         <v>31</v>
       </c>
       <c r="E2" s="7">
-        <v>52.01</v>
+        <v>51.88</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="9">
-        <v>5142.82</v>
+        <v>5142.83</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>4023</v>
+        <v>437</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>30</v>
@@ -1418,7 +1427,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="7">
-        <v>0.13</v>
+        <v>51.88</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1430,31 +1439,31 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>4016</v>
+        <v>442</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="8">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="7">
-        <v>51.88</v>
+        <v>46.57</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7">
-        <v>0</v>
+      <c r="J4" s="9">
+        <v>5090.95</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>4022</v>
+        <v>441</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>30</v>
@@ -1466,7 +1475,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="7">
-        <v>46.43</v>
+        <v>0.01</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1478,7 +1487,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>4015</v>
+        <v>439</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>30</v>
@@ -1487,46 +1496,46 @@
         <v>42063</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="7">
-        <v>46.43</v>
+        <v>0.13</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="9">
-        <v>5090.8100000000004</v>
+      <c r="J6" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>4013</v>
+        <v>435</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="7">
-        <v>44.38</v>
+        <v>46.43</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="9">
-        <v>5044.38</v>
+      <c r="J7" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>4012</v>
+        <v>434</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>30</v>
@@ -1535,7 +1544,7 @@
         <v>42035</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="7">
         <v>44.38</v>
@@ -1544,31 +1553,55 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="7">
-        <v>0</v>
+      <c r="J8" s="9">
+        <v>5044.38</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>4011</v>
+        <v>433</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="8">
+        <v>42035</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="7">
+        <v>44.38</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>432</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8">
         <v>42009</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <v>5000</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6">
         <v>5000</v>
       </c>
     </row>
@@ -1582,10 +1615,15 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="11"/>
+    <col min="5" max="5" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="11"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
@@ -1697,8 +1735,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/43/waivecharge/215" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/43/waivecharge/215"/>
-    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/43/waivecharge/216" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/43/waivecharge/216"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/12/waivecharge/63" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/63"/>
+    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/12/waivecharge/64" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Finflux Automation Excels/Client/5045-CompondingPenalityCharge-MoraoriumOnPrinciple2-BeforeAndAfterGracePeriod-3rdInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5045-CompondingPenalityCharge-MoraoriumOnPrinciple2-BeforeAndAfterGracePeriod-3rdInstallment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,7 @@
         <v>247.76</v>
       </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>97.04</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -939,7 +939,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1348,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>30</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>30</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>30</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>30</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>30</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>30</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>30</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>30</v>
@@ -1615,14 +1615,14 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="9.140625" style="11"/>
-    <col min="5" max="5" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="11"/>
+    <col min="5" max="6" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>40</v>
       </c>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -1735,8 +1735,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/12/waivecharge/63" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/63"/>
-    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/12/waivecharge/64" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/64"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/20/waivecharge/88" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/20/waivecharge/88"/>
+    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/20/waivecharge/91" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/20/waivecharge/91"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
